--- a/Preethi/RoboticEnterpriseFramework1Calculator/Data/Config.xlsx
+++ b/Preethi/RoboticEnterpriseFramework1Calculator/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sridh\OneDrive\Documents\UiPath\RoboticEnterpriseFramework1Calculator\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sridh\OneDrive\Documents\RPA-Developer-in-30-Days\Preethi\RoboticEnterpriseFramework1Calculator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0546D75-419B-4499-9AD0-9AD842EAF0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C13B59-8B7A-426A-A25A-F899A8E24FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>CalculatorREFrameWorkProject</t>
+    <t>CalculatorREFrameworkWeek1</t>
   </si>
 </sst>
 </file>

--- a/Preethi/RoboticEnterpriseFramework1Calculator/Data/Config.xlsx
+++ b/Preethi/RoboticEnterpriseFramework1Calculator/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sridh\OneDrive\Documents\RPA-Developer-in-30-Days\Preethi\RoboticEnterpriseFramework1Calculator\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\punckhan\Documents\UiPath\New folder\Preethi\RoboticEnterpriseFramework1Calculator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C13B59-8B7A-426A-A25A-F899A8E24FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1760CEBA-A63E-49F6-A8EB-41395ED6DA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Preethi/RoboticEnterpriseFramework1Calculator/Data/Config.xlsx
+++ b/Preethi/RoboticEnterpriseFramework1Calculator/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sridh\OneDrive\Documents\RPA-Developer-in-30-Days\Preethi\RoboticEnterpriseFramework1Calculator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C13B59-8B7A-426A-A25A-F899A8E24FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D865569A-2BFA-459B-AA3F-3DAD51DADA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
